--- a/Luke-Excel-Course/6_Advanced_Data_Analysis/2_Data_Tables.xlsx
+++ b/Luke-Excel-Course/6_Advanced_Data_Analysis/2_Data_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\6_Advanced_Data_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Data Science Career\Data-Analyst\Luke-Excel-Course\6_Advanced_Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF699739-AF38-4398-A5C0-59458B85094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A303DFE9-8A58-4FAB-A202-27FDC83E84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10416" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="3" r:id="rId1"/>
@@ -36,23 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Base Salary</t>
   </si>
@@ -92,28 +81,38 @@
   <si>
     <t>Amount</t>
   </si>
+  <si>
+    <t>Bonus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual Raise</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,13 +120,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,27 +134,27 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,8 +163,24 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -428,24 +443,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -453,21 +486,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,20 +521,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
+    <cellStyle name="千位分隔" xfId="4" builtinId="3"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -825,116 +875,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB43CA-5103-49AE-8216-4AB866E06AE4}">
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.05078125" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="29"/>
+      <c r="E2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>100000</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="32">
+        <f>C9</f>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G3" s="33">
+        <f>C10</f>
+        <v>111650</v>
+      </c>
+      <c r="H3" s="33">
+        <f>C11</f>
+        <v>113324.74999999997</v>
+      </c>
+      <c r="I3" s="33">
+        <f>C12</f>
+        <v>115024.62124999997</v>
+      </c>
+      <c r="J3" s="33">
+        <f>C13</f>
+        <v>116749.99056874996</v>
+      </c>
+      <c r="K3" s="34">
+        <f>C14</f>
+        <v>566749.36181874992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="dataTable" ref="F4:K12" dt2D="0" dtr="0" r1="C5"/>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>550000.00000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E6" s="17"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22" t="s">
+      <c r="E5" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>110550</v>
+      </c>
+      <c r="H5" s="1">
+        <v>111102.74999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>111658.26374999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>112216.55506874995</v>
+      </c>
+      <c r="K5" s="2">
+        <v>555527.56881874998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>111100.00000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>112211.00000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>113333.11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>114466.44110000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>561110.55110000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="29"/>
+      <c r="E7" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>111650</v>
+      </c>
+      <c r="H7" s="1">
+        <v>113324.74999999997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>115024.62124999997</v>
+      </c>
+      <c r="J7" s="1">
+        <v>116749.99056874996</v>
+      </c>
+      <c r="K7" s="2">
+        <v>566749.36181874992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>112200.00000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>114444.00000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>116732.87999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>119067.53760000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>572444.41760000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -942,15 +1097,29 @@
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>112750</v>
+      </c>
+      <c r="H9" s="1">
+        <v>115568.75</v>
+      </c>
+      <c r="I9" s="1">
+        <v>118457.96875</v>
+      </c>
+      <c r="J9" s="1">
+        <v>121419.41796874997</v>
+      </c>
+      <c r="K9" s="2">
+        <v>578196.13671875</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -958,15 +1127,29 @@
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
         <v>111650</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>113300.00000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>116699.00000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>120199.97</v>
+      </c>
+      <c r="J10" s="1">
+        <v>123805.9691</v>
+      </c>
+      <c r="K10" s="2">
+        <v>584004.93910000008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -974,15 +1157,29 @@
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E11" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>113850</v>
+      </c>
+      <c r="H11" s="1">
+        <v>117834.75</v>
+      </c>
+      <c r="I11" s="1">
+        <v>121958.96624999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>126227.53006874998</v>
+      </c>
+      <c r="K11" s="2">
+        <v>589871.24631874997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -990,15 +1187,29 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F12" s="3">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>114400.00000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>118976.00000000003</v>
+      </c>
+      <c r="I12" s="3">
+        <v>123735.04000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>128684.44160000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>595795.48160000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -1007,20 +1218,296 @@
         <v>116749.99056874996</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>SUM(C9:C13)</f>
         <v>566749.36181874992</v>
       </c>
     </row>
+    <row r="21" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="39">
+        <f>C14</f>
+        <v>566749.36181874992</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="35">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="dataTable" ref="F23:K31" dt2D="1" dtr="1" r1="C4" r2="C5" ca="1"/>
+        <v>525000</v>
+      </c>
+      <c r="G23" s="40">
+        <v>550000.00000000012</v>
+      </c>
+      <c r="H23" s="40">
+        <v>574999.99999999988</v>
+      </c>
+      <c r="I23" s="40">
+        <v>600000</v>
+      </c>
+      <c r="J23" s="40">
+        <v>625000</v>
+      </c>
+      <c r="K23" s="41">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="38"/>
+      <c r="E24" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="40">
+        <v>530276.31569062488</v>
+      </c>
+      <c r="G24" s="40">
+        <v>555527.56881874998</v>
+      </c>
+      <c r="H24" s="40">
+        <v>580778.82194687473</v>
+      </c>
+      <c r="I24" s="40">
+        <v>606030.07507499983</v>
+      </c>
+      <c r="J24" s="40">
+        <v>631281.32820312493</v>
+      </c>
+      <c r="K24" s="41">
+        <v>656532.58133124991</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="38"/>
+      <c r="E25" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="40">
+        <v>535605.52604999999</v>
+      </c>
+      <c r="G25" s="40">
+        <v>561110.55110000004</v>
+      </c>
+      <c r="H25" s="40">
+        <v>586615.57614999986</v>
+      </c>
+      <c r="I25" s="40">
+        <v>612120.60120000003</v>
+      </c>
+      <c r="J25" s="40">
+        <v>637625.62624999997</v>
+      </c>
+      <c r="K25" s="41">
+        <v>663130.65130000003</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D26" s="38"/>
+      <c r="E26" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F26" s="40">
+        <v>540988.02719062497</v>
+      </c>
+      <c r="G26" s="40">
+        <v>566749.36181874992</v>
+      </c>
+      <c r="H26" s="40">
+        <v>592510.69644687476</v>
+      </c>
+      <c r="I26" s="40">
+        <v>618272.03107499983</v>
+      </c>
+      <c r="J26" s="40">
+        <v>644033.3657031249</v>
+      </c>
+      <c r="K26" s="41">
+        <v>669794.70033124997</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D27" s="38"/>
+      <c r="E27" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F27" s="40">
+        <v>546424.21679999994</v>
+      </c>
+      <c r="G27" s="40">
+        <v>572444.41760000004</v>
+      </c>
+      <c r="H27" s="40">
+        <v>598464.61839999992</v>
+      </c>
+      <c r="I27" s="40">
+        <v>624484.81919999991</v>
+      </c>
+      <c r="J27" s="40">
+        <v>650505.02</v>
+      </c>
+      <c r="K27" s="41">
+        <v>676525.22080000001</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="38"/>
+      <c r="E28" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F28" s="40">
+        <v>551914.494140625</v>
+      </c>
+      <c r="G28" s="40">
+        <v>578196.13671875</v>
+      </c>
+      <c r="H28" s="40">
+        <v>604477.77929687488</v>
+      </c>
+      <c r="I28" s="40">
+        <v>630759.42187499988</v>
+      </c>
+      <c r="J28" s="40">
+        <v>657041.064453125</v>
+      </c>
+      <c r="K28" s="41">
+        <v>683322.70703125</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29" s="38"/>
+      <c r="E29" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F29" s="40">
+        <v>557459.26005000004</v>
+      </c>
+      <c r="G29" s="40">
+        <v>584004.93910000008</v>
+      </c>
+      <c r="H29" s="40">
+        <v>610550.61814999988</v>
+      </c>
+      <c r="I29" s="40">
+        <v>637096.29719999991</v>
+      </c>
+      <c r="J29" s="40">
+        <v>663641.97625000007</v>
+      </c>
+      <c r="K29" s="41">
+        <v>690187.65529999998</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="38"/>
+      <c r="E30" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F30" s="40">
+        <v>563058.91694062494</v>
+      </c>
+      <c r="G30" s="40">
+        <v>589871.24631874997</v>
+      </c>
+      <c r="H30" s="40">
+        <v>616683.57569687488</v>
+      </c>
+      <c r="I30" s="40">
+        <v>643495.9050749999</v>
+      </c>
+      <c r="J30" s="40">
+        <v>670308.23445312493</v>
+      </c>
+      <c r="K30" s="41">
+        <v>697120.56383124995</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="38"/>
+      <c r="E31" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F31" s="42">
+        <v>568713.86880000005</v>
+      </c>
+      <c r="G31" s="42">
+        <v>595795.48160000006</v>
+      </c>
+      <c r="H31" s="42">
+        <v>622877.09440000006</v>
+      </c>
+      <c r="I31" s="42">
+        <v>649958.70720000006</v>
+      </c>
+      <c r="J31" s="42">
+        <v>677040.32000000007</v>
+      </c>
+      <c r="K31" s="43">
+        <v>704121.93280000007</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="D23:D31"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F4:J12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="4" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:J31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1030,53 +1517,53 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E2" sqref="E2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.05078125" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="29"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="12">
         <f>C9</f>
         <v>110000.00000000001</v>
@@ -1102,11 +1589,11 @@
         <v>566749.36181874992</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
       <c r="E4" s="17">
@@ -1132,11 +1619,11 @@
         <v>550000.00000000012</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E5" s="17">
@@ -1161,7 +1648,7 @@
         <v>555527.56881874998</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="17">
         <v>0.01</v>
       </c>
@@ -1184,11 +1671,11 @@
         <v>561110.55110000004</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="29"/>
       <c r="E7" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1211,7 +1698,7 @@
         <v>566749.36181874992</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1727,7 @@
         <v>572444.41760000004</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -1270,7 +1757,7 @@
         <v>578196.13671875</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -1300,7 +1787,7 @@
         <v>584004.93910000008</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -1330,7 +1817,7 @@
         <v>589871.24631874997</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -1360,7 +1847,7 @@
         <v>595795.48160000006</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -1369,11 +1856,11 @@
         <v>116749.99056874996</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>SUM(C9:C13)</f>
         <v>566749.36181874992</v>
       </c>
@@ -1424,38 +1911,38 @@
       <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.05078125" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="29"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11">
@@ -1481,14 +1968,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="16">
         <v>0</v>
       </c>
@@ -1512,14 +1999,14 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1542,8 +2029,8 @@
         <v>631281.32820312493</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D6" s="24"/>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
       <c r="E6" s="17">
         <v>0.01</v>
       </c>
@@ -1566,12 +2053,12 @@
         <v>637625.62624999997</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1594,14 +2081,14 @@
         <v>644033.3657031249</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="17">
         <v>0.02</v>
       </c>
@@ -1624,7 +2111,7 @@
         <v>650505.02</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -1632,7 +2119,7 @@
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1655,7 +2142,7 @@
         <v>657041.064453125</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -1663,7 +2150,7 @@
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
         <v>111650</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="17">
         <v>0.03</v>
       </c>
@@ -1686,7 +2173,7 @@
         <v>663641.97625000007</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -1694,7 +2181,7 @@
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -1717,7 +2204,7 @@
         <v>670308.23445312493</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -1725,7 +2212,7 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="18">
         <v>0.04</v>
       </c>
@@ -1748,7 +2235,7 @@
         <v>677040.32000000007</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -1757,11 +2244,11 @@
         <v>116749.99056874996</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>SUM(C9:C13)</f>
         <v>566749.36181874992</v>
       </c>
@@ -1773,6 +2260,7 @@
     <mergeCell ref="D3:D12"/>
     <mergeCell ref="F2:K2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F4:K12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
